--- a/siniestros_IBNR.xlsx
+++ b/siniestros_IBNR.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -22,72 +21,54 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t xml:space="preserve">Siniestros Incurridos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Período de Ocurrencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Período de Desarrollo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999/2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000/2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001/2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002/2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003/2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004/2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005/2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006/2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007/2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008/2009</t>
+    <t>Siniestros Incurridos</t>
+  </si>
+  <si>
+    <t>Período de Ocurrencia</t>
+  </si>
+  <si>
+    <t>Período de Desarrollo</t>
+  </si>
+  <si>
+    <t>1999/2000</t>
+  </si>
+  <si>
+    <t>2000/2001</t>
+  </si>
+  <si>
+    <t>2001/2002</t>
+  </si>
+  <si>
+    <t>2002/2003</t>
+  </si>
+  <si>
+    <t>2003/2004</t>
+  </si>
+  <si>
+    <t>2004/2005</t>
+  </si>
+  <si>
+    <t>2005/2006</t>
+  </si>
+  <si>
+    <t>2006/2007</t>
+  </si>
+  <si>
+    <t>2007/2008</t>
+  </si>
+  <si>
+    <t>2008/2009</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,7 +80,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -107,326 +88,584 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="n">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>6</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>7</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3">
         <v>8</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3">
         <v>9</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>652799</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>1383776</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>2634200</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>3167840</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>3842289</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>4029679</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>4454460</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4">
         <v>4817622</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4">
         <v>5012751</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4">
         <v>5099688</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>1360795</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>2480988</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>2806387</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>3592401</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>3451088</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>3931688</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>4491687</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5">
         <v>4165270</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5">
         <v>4221137</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>1985553</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>3275646</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>3290023</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>3945474</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>4961886</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>4975029</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6">
         <v>5914580</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6">
         <v>5969088</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>2901555</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>4528347</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>4556763</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>5790821</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>6444829</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>7957380</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>8581805</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>3572829</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>4717083</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>5937065</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>6835232</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>7309686</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8">
         <v>7276239</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>2578343</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>4423917</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>4664371</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>5348014</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>5882585</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>4051902</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>6081465</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>8618348</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>9901076</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>5030173</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>8881224</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>12548654</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>6849422</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>9171465</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>10120889</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
